--- a/indicadores/04/tabelas/2002_estado.xlsx
+++ b/indicadores/04/tabelas/2002_estado.xlsx
@@ -12,16 +12,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
-    <t>LEGENDA</t>
+    <t>legenda</t>
   </si>
   <si>
-    <t>area_km2</t>
+    <t>area</t>
   </si>
   <si>
     <t>nome</t>
   </si>
   <si>
-    <t>area_km2_1</t>
+    <t>area_km2</t>
   </si>
   <si>
     <t>Extensão de agricultura e silvicultura (ano-base 2002)</t>
@@ -107,7 +107,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>125654.845478</v>
+        <v>158792.012421</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
